--- a/medicine/Psychotrope/Champagne_Thiénot/Champagne_Thiénot.xlsx
+++ b/medicine/Psychotrope/Champagne_Thiénot/Champagne_Thiénot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champagne_Thi%C3%A9not</t>
+          <t>Champagne_Thiénot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le champagne Thiénot est une maison de champagne fondée en 1985. Son siège est à Taissy près de Reims. Il fait partie du groupe Alain Thiénot, également propriétaire des champagnes Canard-Duchêne, Marie Stuart et actionnaire de Champagne Joseph Perrier.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champagne_Thi%C3%A9not</t>
+          <t>Champagne_Thiénot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison est dirigée depuis sa fondation en 1985 par Alain Thiénot.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Champagne_Thi%C3%A9not</t>
+          <t>Champagne_Thiénot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champagne Thiénot se compose d’un vignoble de 27 ha en exploitation.
 La moitié de ce vignoble est en Grand Cru et 1er Cru :
